--- a/AST_data.xlsx
+++ b/AST_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="1060">
   <si>
     <t>建案名稱</t>
   </si>
@@ -3176,6 +3176,9 @@
   </si>
   <si>
     <t>住友, JFE</t>
+  </si>
+  <si>
+    <t>JEF</t>
   </si>
   <si>
     <t>UBB</t>
@@ -4169,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -5728,7 +5731,7 @@
         <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -5953,6 +5956,9 @@
       <c r="I88" t="s">
         <v>1051</v>
       </c>
+      <c r="J88" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="1">
@@ -6058,7 +6064,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -6684,7 +6690,7 @@
         <v>1</v>
       </c>
       <c r="K117" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -8201,7 +8207,7 @@
         <v>1</v>
       </c>
       <c r="K175" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -8230,7 +8236,7 @@
         <v>1</v>
       </c>
       <c r="K176" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -9384,7 +9390,7 @@
         <v>1</v>
       </c>
       <c r="K222" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="223" spans="1:11">
